--- a/cypress/fixtures/TestData/TestCaseSpecific_TestData.xlsx
+++ b/cypress/fixtures/TestData/TestCaseSpecific_TestData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Current Project Works\4. Tabula Rasa\Cypress_Automation\cypress\fixtures\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Current Project Works\4. Tabula Rasa\LatestGitHub_3Branches\Cypress_Automation\cypress\fixtures\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE42B1BA-38A5-458A-AED2-2B1EDBCEA185}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F08390-21BB-48B1-AA0F-609E92A9338C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vaccination" sheetId="1" r:id="rId1"/>
     <sheet name="eCare" sheetId="2" r:id="rId2"/>
+    <sheet name="Negative" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>NPI_First_FourCharacters</t>
   </si>
@@ -77,16 +78,30 @@
   </si>
   <si>
     <t>Blue Cross</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ScriptFaile@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,14 +124,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C867E7-2744-4843-9A9E-C0AF0A7DB8D9}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -490,4 +508,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A276AE5F-A529-4C97-BC49-49279B6FF088}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{EE26460D-84C4-4EC8-805E-455FD9509015}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>